--- a/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.1.0.0/report-checklist.xlsx
@@ -574,13 +574,13 @@
     </r>
   </si>
   <si>
-    <t>2023-06-20T12:00:21Z</t>
-  </si>
-  <si>
-    <t>326f18c7379c2c0e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.edb6d60b7d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-07-01T21:00:12Z</t>
+  </si>
+  <si>
+    <t>e15d0e2169b5c1da</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.501f41cb88^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT5</t>
@@ -3907,7 +3907,7 @@
         <v>77</v>
       </c>
       <c r="F13" s="57">
-        <v>45097</v>
+        <v>45108</v>
       </c>
       <c r="G13" t="s" s="58">
         <v>78</v>

--- a/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.1.0.0/report-checklist.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -752,7 +752,9 @@
 "instance":"/jwt-mandatory-field-malformed"</t>
   </si>
   <si>
-    <t>Il controllo sulla generazione del file data.json viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore.</t>
+    <t>Il controllo sulla generazione del file data.json viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore. + +Il verificarsi di tale tipo di errore  dopo esser stato notificato consente all’utente di proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore.</t>
   </si>
   <si>
     <t>KO</t>
@@ -850,7 +852,9 @@
     <t>2023-06-01T10:47:00Z</t>
   </si>
   <si>
-    <t>Viene visualizzato un messaggio a video di non disponibilità del servizio.</t>
+    <t>Viene visualizzato un messaggio a video di non disponibilità del servizio. + +Il verificarsi di tale tipo di errore  dopo esser stato notificato consente all’utente di proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT6_KO</t>
@@ -876,7 +880,11 @@
 "instance":"/validation/error"</t>
   </si>
   <si>
-    <t>Il controllo sul livello di confidenzialità viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore.</t>
+    <t>Il controllo sul livello di confidenzialità viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore. + +Al verificarsi di tale tipo di errore dopo esser stato notificato viene consentito all’utente di: +- correggerlo contestualmente e reinviare il documento +- proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore tramite un processo interno semiautomatico in cui può intervenire un operatore di backoffice.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
@@ -898,7 +906,11 @@
 "status":403,"instance":"/jwt-mandatory-field-malformed"</t>
   </si>
   <si>
-    <t>Il controllo sulla corretta formattazione del codice fiscale viene effettuato direttamente in fase di accettazione. Pertanto eventuali errori vengono segnalati in fase di accettazione. Inoltre ci sono ulteriori controllo prima della fase di validazione. In caso di problemi l’errore viene segnalato attraverso un messaggio.</t>
+    <t>Il controllo sulla corretta formattazione del codice fiscale viene effettuato direttamente in fase di accettazione. Pertanto eventuali errori vengono segnalati in fase di accettazione. Inoltre ci sono ulteriori controllo prima della fase di validazione. In caso di problemi l’errore viene segnalato attraverso un messaggio. + +Al verificarsi di tale tipo di errore dopo esser stato notificato viene consentito all’utente di: +- correggerlo contestualmente e reinviare il documento +- proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore tramite un processo interno semiautomatico in cui può intervenire un operatore di backoffice.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT8_KO</t>
@@ -947,7 +959,11 @@
 "instance":"/validation/error"</t>
   </si>
   <si>
-    <t>La presenza di tutti i campi indispensabili viene effettuata prima di procedere con la validazione. In caso di errore il programma mostra un messaggio a video con le specifiche dell’errore.</t>
+    <t>La presenza di tutti i campi indispensabili viene effettuata prima di procedere con la validazione. In caso di errore il programma mostra un messaggio a video con le specifiche dell’errore. + +Al verificarsi di tale tipo di errore dopo esser stato notificato viene consentito all’utente di: +- correggerlo contestualmente e reinviare il documento +- proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore tramite un processo interno semiautomatico in cui può intervenire un operatore di backoffice.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT10_KO</t>
@@ -1065,7 +1081,11 @@
 "instance":"/validation/error"</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene mostrato a video un messaggio con la descrizione e il relativo codice di errore. </t>
+    <t>Viene mostrato a video un messaggio con la descrizione e il relativo codice di errore. + +Al verificarsi di tale tipo di errore dopo esser stato notificato viene consentito all’utente di: +- correggerlo contestualmente e reinviare il documento +- proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore tramite un processo interno semiautomatico in cui può intervenire un operatore di backoffice.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT15_KO</t>
@@ -1112,6 +1132,13 @@
 "detail":"[ERRORE-b19| L’elemento organizer di tipo 'BATTERY' (@classCode='BATTERY') DEVE contenere l’elemento organizer/code.\n\t\t\t],[W002 | Si consiglia di valorizzare l'elemento organizer[CLUSTER]/code]"  "status":422  "instance":"/validation/error"</t>
+  </si>
+  <si>
+    <t>Viene mostrato a video un messaggio con la descrizione e il relativo codice di errore.  + +Al verificarsi di tale tipo di errore dopo esser stato notificato viene consentito all’utente di: +- correggerlo contestualmente e reinviare il documento +- proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore tramite un processo interno semiautomatico in cui può intervenire un operatore di backoffice.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_TRASF_CT1</t>
@@ -3135,7 +3162,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3146,12 +3173,12 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="3">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3162,7 +3189,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3479,16 +3506,20 @@
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="11.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="46.8516" style="26" customWidth="1"/>
-    <col min="3" max="3" width="20.1719" style="26" customWidth="1"/>
-    <col min="4" max="4" width="39.8516" style="26" customWidth="1"/>
+    <col min="2" max="2" width="7.64062" style="26" customWidth="1"/>
+    <col min="3" max="3" width="3.89844" style="26" customWidth="1"/>
+    <col min="4" max="4" width="5.99219" style="26" customWidth="1"/>
     <col min="5" max="5" width="58" style="26" customWidth="1"/>
-    <col min="6" max="6" width="18.3516" style="26" customWidth="1"/>
-    <col min="7" max="7" width="26.1719" style="26" customWidth="1"/>
-    <col min="8" max="8" width="24.1719" style="26" customWidth="1"/>
-    <col min="9" max="9" width="33.1719" style="26" customWidth="1"/>
-    <col min="10" max="10" width="27.1719" style="26" customWidth="1"/>
-    <col min="11" max="15" width="36.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="3.375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="3.67188" style="26" customWidth="1"/>
+    <col min="8" max="8" width="4.65625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="5.50781" style="26" customWidth="1"/>
+    <col min="10" max="10" width="2.875" style="26" customWidth="1"/>
+    <col min="11" max="11" width="3.1875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="4.77344" style="26" customWidth="1"/>
+    <col min="13" max="13" width="3.71875" style="26" customWidth="1"/>
+    <col min="14" max="14" width="18.875" style="26" customWidth="1"/>
+    <col min="15" max="15" width="2.85156" style="26" customWidth="1"/>
     <col min="16" max="16" width="27.1719" style="26" customWidth="1"/>
     <col min="17" max="17" width="33.1719" style="26" customWidth="1"/>
     <col min="18" max="18" width="36.5" style="26" customWidth="1"/>
@@ -3746,7 +3777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" ht="157.55" customHeight="1">
+    <row r="10" ht="378.55" customHeight="1">
       <c r="A10" s="54">
         <v>1</v>
       </c>
@@ -3794,7 +3825,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" ht="170.55" customHeight="1">
+    <row r="11" ht="378.55" customHeight="1">
       <c r="A11" s="54">
         <v>2</v>
       </c>
@@ -3842,7 +3873,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" ht="157.55" customHeight="1">
+    <row r="12" ht="378.55" customHeight="1">
       <c r="A12" s="54">
         <v>3</v>
       </c>
@@ -3890,7 +3921,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" ht="183.55" customHeight="1">
+    <row r="13" ht="378.55" customHeight="1">
       <c r="A13" s="54">
         <v>4</v>
       </c>
@@ -3938,7 +3969,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" ht="183.55" customHeight="1">
+    <row r="14" ht="378.55" customHeight="1">
       <c r="A14" s="54">
         <v>5</v>
       </c>
@@ -3986,7 +4017,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" ht="195.5" customHeight="1">
+    <row r="15" ht="251.35" customHeight="1">
       <c r="A15" s="54">
         <v>28</v>
       </c>
@@ -4040,7 +4071,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" ht="157.55" customHeight="1">
+    <row r="16" ht="196.55" customHeight="1">
       <c r="A16" s="54">
         <v>36</v>
       </c>
@@ -4094,7 +4125,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" ht="85.05" customHeight="1">
+    <row r="17" ht="157.55" customHeight="1">
       <c r="A17" s="54">
         <v>44</v>
       </c>
@@ -4134,7 +4165,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" ht="144.55" customHeight="1">
+    <row r="18" ht="378.55" customHeight="1">
       <c r="A18" s="54">
         <v>52</v>
       </c>
@@ -4188,7 +4219,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" ht="144.55" customHeight="1">
+    <row r="19" ht="326.55" customHeight="1">
       <c r="A19" s="54">
         <v>53</v>
       </c>
@@ -4242,7 +4273,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" ht="183.55" customHeight="1">
+    <row r="20" ht="378.55" customHeight="1">
       <c r="A20" s="54">
         <v>54</v>
       </c>
@@ -4296,7 +4327,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" ht="170.55" customHeight="1">
+    <row r="21" ht="378.55" customHeight="1">
       <c r="A21" s="54">
         <v>55</v>
       </c>
@@ -4350,7 +4381,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" ht="170.55" customHeight="1">
+    <row r="22" ht="365.55" customHeight="1">
       <c r="A22" s="54">
         <v>56</v>
       </c>
@@ -4404,7 +4435,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" ht="144.55" customHeight="1">
+    <row r="23" ht="378.55" customHeight="1">
       <c r="A23" s="54">
         <v>57</v>
       </c>
@@ -4458,7 +4489,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" ht="183.55" customHeight="1">
+    <row r="24" ht="378.55" customHeight="1">
       <c r="A24" s="54">
         <v>58</v>
       </c>
@@ -4512,7 +4543,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" ht="144.55" customHeight="1">
+    <row r="25" ht="365.55" customHeight="1">
       <c r="A25" s="54">
         <v>59</v>
       </c>
@@ -4566,7 +4597,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" ht="482.55" customHeight="1">
+    <row r="26" ht="963.55" customHeight="1">
       <c r="A26" s="54">
         <v>60</v>
       </c>
@@ -4620,7 +4651,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" ht="157.55" customHeight="1">
+    <row r="27" ht="378.55" customHeight="1">
       <c r="A27" s="54">
         <v>61</v>
       </c>
@@ -4674,7 +4705,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" ht="144.55" customHeight="1">
+    <row r="28" ht="378.55" customHeight="1">
       <c r="A28" s="54">
         <v>62</v>
       </c>
@@ -4719,7 +4750,7 @@
         <v>63</v>
       </c>
       <c r="P28" t="s" s="59">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Q28" s="61"/>
       <c r="R28" s="59"/>
@@ -4739,10 +4770,10 @@
         <v>57</v>
       </c>
       <c r="D29" t="s" s="55">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s" s="56">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F29" s="57"/>
       <c r="G29" s="65"/>
@@ -4752,7 +4783,7 @@
         <v>64</v>
       </c>
       <c r="K29" t="s" s="59">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L29" s="61"/>
       <c r="M29" s="61"/>
@@ -4766,7 +4797,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" ht="183.55" customHeight="1">
+    <row r="30" ht="378.55" customHeight="1">
       <c r="A30" s="66">
         <v>368</v>
       </c>
@@ -4777,10 +4808,10 @@
         <v>57</v>
       </c>
       <c r="D30" t="s" s="55">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E30" t="s" s="56">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F30" s="57">
         <v>45106</v>
@@ -4789,10 +4820,10 @@
         <v>168</v>
       </c>
       <c r="H30" t="s" s="58">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I30" t="s" s="58">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J30" t="s" s="59">
         <v>63</v>
@@ -4825,10 +4856,10 @@
         <v>57</v>
       </c>
       <c r="D31" t="s" s="55">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E31" t="s" s="56">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F31" s="67"/>
       <c r="G31" s="67"/>
@@ -4838,7 +4869,7 @@
         <v>64</v>
       </c>
       <c r="K31" t="s" s="59">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L31" s="61"/>
       <c r="M31" s="61"/>
@@ -16989,10 +17020,10 @@
         <v>37</v>
       </c>
       <c r="C1" t="s" s="38">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s" s="38">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E1" s="20"/>
     </row>
@@ -17001,133 +17032,133 @@
         <v>57</v>
       </c>
       <c r="B2" t="s" s="25">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s" s="78">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s" s="78">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E2" s="20"/>
     </row>
     <row r="3" ht="23.1" customHeight="1">
       <c r="A3" t="s" s="25">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s" s="25">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s" s="78">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s" s="78">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E3" s="20"/>
     </row>
     <row r="4" ht="23.1" customHeight="1">
       <c r="A4" t="s" s="25">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s" s="25">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s" s="78">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s" s="79">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E4" s="20"/>
     </row>
     <row r="5" ht="23.1" customHeight="1">
       <c r="A5" t="s" s="25">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s" s="25">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s" s="78">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s" s="78">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E5" s="20"/>
     </row>
     <row r="6" ht="23.1" customHeight="1">
       <c r="A6" t="s" s="25">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s" s="25">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s" s="78">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s" s="79">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E6" s="20"/>
     </row>
     <row r="7" ht="23.1" customHeight="1">
       <c r="A7" t="s" s="25">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s" s="25">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s" s="78">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s" s="79">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E7" s="20"/>
     </row>
     <row r="8" ht="23.1" customHeight="1">
       <c r="A8" t="s" s="25">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s" s="25">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s" s="78">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s" s="79">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E8" s="20"/>
     </row>
     <row r="9" ht="23.1" customHeight="1">
       <c r="A9" t="s" s="25">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s" s="25">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s" s="78">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s" s="79">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E9" s="20"/>
     </row>
     <row r="10" ht="23.1" customHeight="1">
       <c r="A10" t="s" s="25">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s" s="25">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C10" s="80">
         <v>191</v>
       </c>
       <c r="D10" t="s" s="78">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E10" s="20"/>
     </row>
@@ -17136,118 +17167,118 @@
         <v>57</v>
       </c>
       <c r="B11" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C11" s="80">
         <v>192</v>
       </c>
       <c r="D11" t="s" s="78">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E11" s="20"/>
     </row>
     <row r="12" ht="23.1" customHeight="1">
       <c r="A12" t="s" s="25">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C12" s="80">
         <v>208</v>
       </c>
       <c r="D12" t="s" s="78">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E12" s="20"/>
     </row>
     <row r="13" ht="23.1" customHeight="1">
       <c r="A13" t="s" s="25">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C13" s="80">
         <v>224</v>
       </c>
       <c r="D13" t="s" s="79">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E13" s="20"/>
     </row>
     <row r="14" ht="23.1" customHeight="1">
       <c r="A14" t="s" s="25">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C14" s="80">
         <v>240</v>
       </c>
       <c r="D14" t="s" s="78">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E14" s="20"/>
     </row>
     <row r="15" ht="23.1" customHeight="1">
       <c r="A15" t="s" s="25">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C15" s="80">
         <v>256</v>
       </c>
       <c r="D15" t="s" s="79">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E15" s="20"/>
     </row>
     <row r="16" ht="23.1" customHeight="1">
       <c r="A16" t="s" s="25">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C16" s="80">
         <v>272</v>
       </c>
       <c r="D16" t="s" s="79">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E16" s="20"/>
     </row>
     <row r="17" ht="23.1" customHeight="1">
       <c r="A17" t="s" s="25">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C17" s="80">
         <v>288</v>
       </c>
       <c r="D17" t="s" s="79">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E17" s="20"/>
     </row>
     <row r="18" ht="23.1" customHeight="1">
       <c r="A18" t="s" s="25">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" s="80">
         <v>304</v>
       </c>
       <c r="D18" t="s" s="79">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E18" s="20"/>
     </row>
@@ -17256,118 +17287,118 @@
         <v>57</v>
       </c>
       <c r="B19" t="s" s="25">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C19" s="80">
         <v>193</v>
       </c>
       <c r="D19" t="s" s="78">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E19" s="20"/>
     </row>
     <row r="20" ht="23.1" customHeight="1">
       <c r="A20" t="s" s="25">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s" s="25">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C20" s="80">
         <v>209</v>
       </c>
       <c r="D20" t="s" s="78">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E20" s="20"/>
     </row>
     <row r="21" ht="23.1" customHeight="1">
       <c r="A21" t="s" s="25">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="25">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C21" s="80">
         <v>225</v>
       </c>
       <c r="D21" t="s" s="79">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E21" s="20"/>
     </row>
     <row r="22" ht="23.1" customHeight="1">
       <c r="A22" t="s" s="25">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s" s="25">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22" s="80">
         <v>241</v>
       </c>
       <c r="D22" t="s" s="78">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E22" s="20"/>
     </row>
     <row r="23" ht="23.1" customHeight="1">
       <c r="A23" t="s" s="25">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s" s="25">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C23" s="80">
         <v>257</v>
       </c>
       <c r="D23" t="s" s="79">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E23" s="20"/>
     </row>
     <row r="24" ht="23.1" customHeight="1">
       <c r="A24" t="s" s="25">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s" s="25">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C24" s="80">
         <v>273</v>
       </c>
       <c r="D24" t="s" s="79">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E24" s="20"/>
     </row>
     <row r="25" ht="23.1" customHeight="1">
       <c r="A25" t="s" s="25">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s" s="25">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C25" s="80">
         <v>289</v>
       </c>
       <c r="D25" t="s" s="79">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E25" s="20"/>
     </row>
     <row r="26" ht="23.1" customHeight="1">
       <c r="A26" t="s" s="25">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="25">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C26" s="80">
         <v>305</v>
       </c>
       <c r="D26" t="s" s="79">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E26" s="20"/>
     </row>
@@ -17376,118 +17407,118 @@
         <v>57</v>
       </c>
       <c r="B27" t="s" s="25">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C27" s="80">
         <v>194</v>
       </c>
       <c r="D27" t="s" s="78">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E27" s="20"/>
     </row>
     <row r="28" ht="23.1" customHeight="1">
       <c r="A28" t="s" s="25">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s" s="25">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C28" s="80">
         <v>210</v>
       </c>
       <c r="D28" t="s" s="78">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E28" s="20"/>
     </row>
     <row r="29" ht="23.1" customHeight="1">
       <c r="A29" t="s" s="25">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B29" t="s" s="25">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C29" s="80">
         <v>226</v>
       </c>
       <c r="D29" t="s" s="79">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E29" s="20"/>
     </row>
     <row r="30" ht="23.1" customHeight="1">
       <c r="A30" t="s" s="25">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s" s="25">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C30" s="80">
         <v>242</v>
       </c>
       <c r="D30" t="s" s="78">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E30" s="20"/>
     </row>
     <row r="31" ht="23.1" customHeight="1">
       <c r="A31" t="s" s="25">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s" s="25">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C31" s="80">
         <v>258</v>
       </c>
       <c r="D31" t="s" s="79">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E31" s="20"/>
     </row>
     <row r="32" ht="23.1" customHeight="1">
       <c r="A32" t="s" s="25">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B32" t="s" s="25">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C32" s="80">
         <v>274</v>
       </c>
       <c r="D32" t="s" s="79">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E32" s="20"/>
     </row>
     <row r="33" ht="23.1" customHeight="1">
       <c r="A33" t="s" s="25">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B33" t="s" s="25">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C33" s="80">
         <v>290</v>
       </c>
       <c r="D33" t="s" s="79">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E33" s="20"/>
     </row>
     <row r="34" ht="23.1" customHeight="1">
       <c r="A34" t="s" s="25">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B34" t="s" s="25">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C34" s="80">
         <v>306</v>
       </c>
       <c r="D34" t="s" s="79">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E34" s="20"/>
     </row>
@@ -17496,7 +17527,7 @@
         <v>57</v>
       </c>
       <c r="B35" t="s" s="25">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C35" s="80">
         <v>195</v>
@@ -17508,10 +17539,10 @@
     </row>
     <row r="36" ht="23.1" customHeight="1">
       <c r="A36" t="s" s="25">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s" s="25">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C36" s="80">
         <v>211</v>
@@ -17523,10 +17554,10 @@
     </row>
     <row r="37" ht="23.1" customHeight="1">
       <c r="A37" t="s" s="25">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="25">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C37" s="80">
         <v>227</v>
@@ -17538,10 +17569,10 @@
     </row>
     <row r="38" ht="23.1" customHeight="1">
       <c r="A38" t="s" s="25">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="25">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C38" s="80">
         <v>243</v>
@@ -17553,10 +17584,10 @@
     </row>
     <row r="39" ht="23.1" customHeight="1">
       <c r="A39" t="s" s="25">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s" s="25">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C39" s="80">
         <v>259</v>
@@ -17568,10 +17599,10 @@
     </row>
     <row r="40" ht="23.1" customHeight="1">
       <c r="A40" t="s" s="25">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s" s="25">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C40" s="80">
         <v>275</v>
@@ -17583,10 +17614,10 @@
     </row>
     <row r="41" ht="23.1" customHeight="1">
       <c r="A41" t="s" s="25">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s" s="25">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C41" s="80">
         <v>291</v>
@@ -17598,10 +17629,10 @@
     </row>
     <row r="42" ht="23.1" customHeight="1">
       <c r="A42" t="s" s="25">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s" s="25">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C42" s="80">
         <v>307</v>
@@ -17616,7 +17647,7 @@
         <v>57</v>
       </c>
       <c r="B43" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C43" s="80">
         <v>196</v>
@@ -17628,10 +17659,10 @@
     </row>
     <row r="44" ht="23.1" customHeight="1">
       <c r="A44" t="s" s="25">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C44" s="80">
         <v>212</v>
@@ -17643,10 +17674,10 @@
     </row>
     <row r="45" ht="23.1" customHeight="1">
       <c r="A45" t="s" s="25">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B45" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C45" s="80">
         <v>228</v>
@@ -17658,10 +17689,10 @@
     </row>
     <row r="46" ht="23.1" customHeight="1">
       <c r="A46" t="s" s="25">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C46" s="80">
         <v>244</v>
@@ -17673,10 +17704,10 @@
     </row>
     <row r="47" ht="23.1" customHeight="1">
       <c r="A47" t="s" s="25">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B47" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C47" s="80">
         <v>260</v>
@@ -17688,10 +17719,10 @@
     </row>
     <row r="48" ht="23.1" customHeight="1">
       <c r="A48" t="s" s="25">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B48" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C48" s="80">
         <v>276</v>
@@ -17703,10 +17734,10 @@
     </row>
     <row r="49" ht="23.1" customHeight="1">
       <c r="A49" t="s" s="25">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B49" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C49" s="80">
         <v>292</v>
@@ -17718,10 +17749,10 @@
     </row>
     <row r="50" ht="23.1" customHeight="1">
       <c r="A50" t="s" s="25">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C50" s="80">
         <v>308</v>
@@ -17767,7 +17798,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="7">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s" s="7">
         <v>63</v>
@@ -17778,7 +17809,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>64</v>

--- a/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1111MEDUSASOFTX/Medusa_Software/Urania_FSE/v.1.0.0/report-checklist.xlsx
@@ -178,7 +178,7 @@
     <t>NOME FORNITORE:</t>
   </si>
   <si>
-    <t>EXPLORA CONSULTING SRL</t>
+    <t>MEDUSA SOFTWARE</t>
   </si>
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
@@ -3506,9 +3506,9 @@
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="11.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="7.64062" style="26" customWidth="1"/>
-    <col min="3" max="3" width="3.89844" style="26" customWidth="1"/>
-    <col min="4" max="4" width="5.99219" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11.1719" style="26" customWidth="1"/>
+    <col min="3" max="3" width="38.8516" style="26" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="26" customWidth="1"/>
     <col min="5" max="5" width="58" style="26" customWidth="1"/>
     <col min="6" max="6" width="3.375" style="26" customWidth="1"/>
     <col min="7" max="7" width="3.67188" style="26" customWidth="1"/>
